--- a/sql/whmgu.xlsx
+++ b/sql/whmgu.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C49AB5-52CF-4DCA-99B4-687ADDC77590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1C755-288A-4089-A24D-7D11AC45D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1236" windowWidth="23040" windowHeight="12204" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wh_division" sheetId="15" r:id="rId1"/>
+    <sheet name="wh_division" sheetId="16" r:id="rId1"/>
     <sheet name="wh_employee" sheetId="1" r:id="rId2"/>
     <sheet name="wh_employment" sheetId="2" r:id="rId3"/>
     <sheet name="wh_employment_status" sheetId="3" r:id="rId4"/>
@@ -23,14 +23,14 @@
     <sheet name="wh_monthly_supplement" sheetId="7" r:id="rId8"/>
     <sheet name="wh_monthly_workdays" sheetId="8" r:id="rId9"/>
     <sheet name="wh_position" sheetId="9" r:id="rId10"/>
-    <sheet name="wh_salary_computation" sheetId="10" r:id="rId11"/>
-    <sheet name="wh_salary_computation_row" sheetId="11" r:id="rId12"/>
-    <sheet name="wh_salary_period" sheetId="12" r:id="rId13"/>
-    <sheet name="wh_salary_supplement" sheetId="13" r:id="rId14"/>
-    <sheet name="wh_supplement" sheetId="14" r:id="rId15"/>
+    <sheet name="wh_position_salary" sheetId="10" r:id="rId11"/>
+    <sheet name="wh_salary_computation" sheetId="11" r:id="rId12"/>
+    <sheet name="wh_salary_computation_row" sheetId="12" r:id="rId13"/>
+    <sheet name="wh_salary_period" sheetId="13" r:id="rId14"/>
+    <sheet name="wh_salary_supplement" sheetId="14" r:id="rId15"/>
+    <sheet name="wh_supplement" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wh_division!$A$1:$B$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">wh_employee!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">wh_employment!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">wh_employment_status!$A$1:$B$1</definedName>
@@ -39,19 +39,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">wh_funds!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">wh_monthly_supplement!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">wh_monthly_workdays!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">wh_position!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">wh_salary_computation!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">wh_salary_computation_row!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">wh_salary_period!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">wh_salary_supplement!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">wh_supplement!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">wh_position!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">wh_position_salary!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">wh_salary_computation!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">wh_salary_computation_row!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">wh_salary_period!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">wh_salary_supplement!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">wh_supplement!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +96,6 @@
     <t>encrypted_password</t>
   </si>
   <si>
-    <t>employee_id</t>
-  </si>
-  <si>
     <t>operation_ip</t>
   </si>
   <si>
@@ -119,15 +117,12 @@
     <t>employment_fk</t>
   </si>
   <si>
+    <t>division_fk</t>
+  </si>
+  <si>
     <t>salary</t>
   </si>
   <si>
-    <t>division_fk</t>
-  </si>
-  <si>
-    <t>Начальник отдела</t>
-  </si>
-  <si>
     <t>computation_date</t>
   </si>
   <si>
@@ -156,25 +151,24 @@
   </si>
   <si>
     <t>funds_fk</t>
-  </si>
-  <si>
-    <t>Главный отдел</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#0.####################"/>
-  </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -267,231 +261,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -807,100 +621,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127E520-A0EB-46CA-97D1-186030AF2C8F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F1D71E-19A6-4466-A0DE-E61E55C24367}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="68">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="67">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="47">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,32 +742,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,32 +780,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,35 +819,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="58" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,38 +862,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+      <c r="F1" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,27 +907,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1105,7 +938,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,16 +955,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1146,7 +980,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,28 +997,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1199,7 +1034,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,10 +1045,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1228,7 +1064,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,10 +1075,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1257,7 +1094,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,20 +1108,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>14</v>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1136,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,10 +1147,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1327,7 +1166,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,29 +1183,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1220,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,30 +1237,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
